--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BookMYshoW" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="233">
   <si>
     <t>TC_ID</t>
   </si>
@@ -247,6 +249,508 @@
   </si>
   <si>
     <t>Grylls</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>₹ 5,738</t>
+  </si>
+  <si>
+    <t>Go First</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>₹ 6,250</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>₹ 6,529</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>23:25</t>
+  </si>
+  <si>
+    <t>₹ 7,000</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>₹ 7,266</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>₹ 7,863</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>₹ 8,600</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>₹ 4,195</t>
+  </si>
+  <si>
+    <t>20:35</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>₹ 4,300</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>₹ 5,049</t>
+  </si>
+  <si>
+    <t>₹ 6,258</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>07:05</t>
+  </si>
+  <si>
+    <t>₹ 7,365</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>₹ 8,463</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>₹ 8,699</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>18:25</t>
+  </si>
+  <si>
+    <t>₹ 9,692</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>₹ 10,142</t>
+  </si>
+  <si>
+    <t>PVR: Vega City, Bannerghatta Road</t>
+  </si>
+  <si>
+    <t>PVR: Nexus (Formerly Forum), Koramangala</t>
+  </si>
+  <si>
+    <t>PVR: VR Bengaluru, Whitefield Road</t>
+  </si>
+  <si>
+    <t>INOX: Galleria Mall, Yelahanka</t>
+  </si>
+  <si>
+    <t>Cinepolis: Nexus Shantiniketan, Bengaluru</t>
+  </si>
+  <si>
+    <t>06:40 PM</t>
+  </si>
+  <si>
+    <t>10:30 PM</t>
+  </si>
+  <si>
+    <t>Mukta A2 Cinemas: Vaishnavi Vaibhavi, Uttarahalli</t>
+  </si>
+  <si>
+    <t>07:30 PM</t>
+  </si>
+  <si>
+    <t>Gopalan Mall: Sirsi Circle</t>
+  </si>
+  <si>
+    <t>Siddalingeshwara A/C 4K 3D Dolby Digital:J.P.Nagar</t>
+  </si>
+  <si>
+    <t>07:00 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>PVR: The Cinema GT World, Bengaluru</t>
+  </si>
+  <si>
+    <t>10:00 PM
+4K ATMOS enabled</t>
+  </si>
+  <si>
+    <t>Gopalan Cinemas: Bannerghatta Road</t>
+  </si>
+  <si>
+    <t>09:30 PM</t>
+  </si>
+  <si>
+    <t>PVR: Gold, Vega City, Bannerghatta Road</t>
+  </si>
+  <si>
+    <t>10:30 PM
+4K Dolby 7.1</t>
+  </si>
+  <si>
+    <t>06:35 PM
+4K Dolby 7.1</t>
+  </si>
+  <si>
+    <t>10:00 PM
+4K Dolby 7.1</t>
+  </si>
+  <si>
+    <t>Srinivasa 4K Dolby Atmos: S.G. Palya</t>
+  </si>
+  <si>
+    <t>Cinepolis: SJR (Central Mall) Arekere, Bannergatta</t>
+  </si>
+  <si>
+    <t>10:10 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>PVR: Gold, Nexus (Formerly Forum), Koramangala</t>
+  </si>
+  <si>
+    <t>06:45 PM
+GOLD</t>
+  </si>
+  <si>
+    <t>09:30 PM
+GOLD</t>
+  </si>
+  <si>
+    <t>07:05 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>10:30 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>Cinepolis: Royal Meenakshi Mall</t>
+  </si>
+  <si>
+    <t>09:55 PM
+QSC 5.1</t>
+  </si>
+  <si>
+    <t>Venkateshwara Digital 4K Dolby Atmos A/C: Kengeri</t>
+  </si>
+  <si>
+    <t>08:45 PM
+4K DOLBY ATMOS</t>
+  </si>
+  <si>
+    <t>Savitha Theatre:2K Dolby A/C Malleshwaram</t>
+  </si>
+  <si>
+    <t>08:00 PM</t>
+  </si>
+  <si>
+    <t>INOX: Garuda Mall, Magrath Road</t>
+  </si>
+  <si>
+    <t>06:45 PM</t>
+  </si>
+  <si>
+    <t>Brundha 4K Dolby Atmos: Hongasandra DMart</t>
+  </si>
+  <si>
+    <t>07:00 PM
+4K ATMOS</t>
+  </si>
+  <si>
+    <t>10:00 PM
+4K ATMOS</t>
+  </si>
+  <si>
+    <t>Swagath ShankarNag (ONYX) LED Cinema: MG Road</t>
+  </si>
+  <si>
+    <t>10:15 PM
+ONYX LED SCREEN</t>
+  </si>
+  <si>
+    <t>Fun Cinemas: Sigma Mall, Bengaluru</t>
+  </si>
+  <si>
+    <t>10:05 PM
+QSC 5.1</t>
+  </si>
+  <si>
+    <t>Sri Lakshmi A/C 4k Dolby 7.1: Gottigere</t>
+  </si>
+  <si>
+    <t>Galaxy Paradise (Miniplex): Begur Road</t>
+  </si>
+  <si>
+    <t>09:00 PM</t>
+  </si>
+  <si>
+    <t>INOX Lido: Off MG Road, Ulsoor</t>
+  </si>
+  <si>
+    <t>06:10 PM</t>
+  </si>
+  <si>
+    <t>PVR: Gold, Orion Mall, Dr Rajkumar Road</t>
+  </si>
+  <si>
+    <t>06:50 PM
+GOLD</t>
+  </si>
+  <si>
+    <t>PVR: Orion Mall, Dr Rajkumar Road</t>
+  </si>
+  <si>
+    <t>10:15 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>Thirumala 4K Dolby Atmos: Agara</t>
+  </si>
+  <si>
+    <t>PVR: Vaishnavi Sapphire Mall, Yeshwanthpur</t>
+  </si>
+  <si>
+    <t>07:05 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>10:30 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>Pushpanjali A/C Digital 2K Dolby Atmos-Sultanpalya</t>
+  </si>
+  <si>
+    <t>09:15 PM
+DOLBY ATMOS</t>
+  </si>
+  <si>
+    <t>Cinepolis: Orion East Mall, Banaswadi</t>
+  </si>
+  <si>
+    <t>07:20 PM
+DOLBY 5.1</t>
+  </si>
+  <si>
+    <t>09:45 PM
+DOLBY 5.1</t>
+  </si>
+  <si>
+    <t>Vaibhav Digital 4k Dolby 7.1: Sanjaynagar</t>
+  </si>
+  <si>
+    <t>Mukunda 4K Dolby Atmos: M.S.Nagar</t>
+  </si>
+  <si>
+    <t>08:30 PM</t>
+  </si>
+  <si>
+    <t>Bharathi Theatre (Peenya) A/C 4K Digital Cinema</t>
+  </si>
+  <si>
+    <t>PVR: Soul Spirit Central Mall, Bellandur</t>
+  </si>
+  <si>
+    <t>06:45 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>10:15 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>HMT Digital 4K Cinema: Jalahalli</t>
+  </si>
+  <si>
+    <t>Gopalan Miniplex: Signature Mall, Old Madras Road</t>
+  </si>
+  <si>
+    <t>Gopalan Grand Mall: Old Madras Road</t>
+  </si>
+  <si>
+    <t>10:05 PM</t>
+  </si>
+  <si>
+    <t>PVR: MSR Elements Mall, Tanisandhra Main Road</t>
+  </si>
+  <si>
+    <t>06:50 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>Sri Lakshmi A/C 4K Projection: Rammurthy Nagar</t>
+  </si>
+  <si>
+    <t>06:30 PM</t>
+  </si>
+  <si>
+    <t>PVR: Gold, VR Bengaluru, Whitefield Road</t>
+  </si>
+  <si>
+    <t>07:05 PM
+GOLD 4K</t>
+  </si>
+  <si>
+    <t>10:30 PM
+GOLD 4K</t>
+  </si>
+  <si>
+    <t>09:30 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>PVR: Phoenix Marketcity Mall, Whitefield Road</t>
+  </si>
+  <si>
+    <t>V Cinema (Vijayalakshmi Theatre): Garudacharpalya</t>
+  </si>
+  <si>
+    <t>09:45 PM
+ENG
+4K DOLBY ATMOS</t>
+  </si>
+  <si>
+    <t>09:40 PM</t>
+  </si>
+  <si>
+    <t>INOX: Garuda Yelahanka, Bengaluru</t>
+  </si>
+  <si>
+    <t>Ganesh Digital 2K Cinema: Yelahanka New Town</t>
+  </si>
+  <si>
+    <t>07:20 PM</t>
+  </si>
+  <si>
+    <t>06:25 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>PVR: Aura Park Square, Bengaluru</t>
+  </si>
+  <si>
+    <t>07:05 PM
+4K ATMOS enabled</t>
+  </si>
+  <si>
+    <t>10:30 PM
+4K ATMOS enabled</t>
+  </si>
+  <si>
+    <t>INOX: Nexus, Whitefield</t>
+  </si>
+  <si>
+    <t>Sri Balaji 4K A/C Dolby Atmos: Dommasandra</t>
+  </si>
+  <si>
+    <t>Kino Cinemas: Seegehalli Kadugodi, Bengaluru</t>
+  </si>
+  <si>
+    <t>09:50 PM</t>
+  </si>
+  <si>
+    <t>INOX:SBR Horizon, Seegehalli Whitefield-Hoskote Rd</t>
+  </si>
+  <si>
+    <t>Ravi Digital 4K A/C Cinema: Sarjapura</t>
+  </si>
+  <si>
+    <t>09:45 PM</t>
+  </si>
+  <si>
+    <t>PVR: Orion Uptown, Old Madras Road, Bengaluru</t>
+  </si>
+  <si>
+    <t>10:00 PM
+4K Laser Projection</t>
   </si>
 </sst>
 </file>
@@ -636,33 +1140,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="55.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1345,4 +1849,948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>